--- a/Res/room_profile.xlsx
+++ b/Res/room_profile.xlsx
@@ -1,49 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>Exam Hall</t>
-  </si>
-  <si>
-    <t>Rows</t>
-  </si>
-  <si>
-    <t>Columns</t>
-  </si>
-  <si>
-    <t>lab1</t>
-  </si>
-  <si>
-    <t>lab2</t>
-  </si>
-  <si>
-    <t>lab3</t>
-  </si>
-  <si>
-    <t>lab4</t>
-  </si>
-  <si>
-    <t>F-hall</t>
-  </si>
-  <si>
-    <t>G-hall</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,99 +366,122 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Hall</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Columns</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lab1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lab2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lab3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>lab4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fhall</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ghall</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
